--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6AB6459-BC76-4D81-8AA9-11F5F25FD95F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E194827D-D811-4EE9-8412-DA4E194F0A61}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,14 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -244,16 +241,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,42 +253,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +315,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,15 +587,15 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17" style="19" customWidth="1"/>
     <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,223 +606,223 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="21">
         <v>45952</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="23">
         <v>45954</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="23">
         <v>45954</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="23">
         <v>45954</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="23">
         <v>45954</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="23">
         <v>45954</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="23">
         <v>45955</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="23">
         <v>45955</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="23">
         <v>45955</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="10">
         <v>0.5</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="23">
         <v>45955</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="23">
         <v>45955</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E194827D-D811-4EE9-8412-DA4E194F0A61}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E12D12-7687-42E7-95FC-F3A90CD083F6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Coordinators" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -100,6 +101,36 @@
   </si>
   <si>
     <t>Final Dance and Singing Perfomance</t>
+  </si>
+  <si>
+    <t>Student Coordinator</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -109,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +151,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,6 +339,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -832,4 +877,123 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C3224E-B216-43BF-B73D-0F7B8EA8AA60}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="16.08984375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="27">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E12D12-7687-42E7-95FC-F3A90CD083F6}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B4E8B2-48F5-4AF0-9D3D-BE5A92473981}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Project Expo</t>
   </si>
   <si>
-    <t>Painting Competition</t>
-  </si>
-  <si>
     <t>Prize Distribution</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
 </sst>
 </file>
@@ -307,21 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -344,6 +323,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,16 +625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="17" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17" style="14" customWidth="1"/>
     <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -651,7 +645,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -662,13 +656,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>45952</v>
       </c>
       <c r="D2" s="5">
@@ -679,27 +673,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="7"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="18">
         <v>45954</v>
       </c>
       <c r="D5" s="10">
@@ -710,11 +704,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>45954</v>
       </c>
       <c r="D6" s="5">
@@ -725,11 +719,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <v>45954</v>
       </c>
       <c r="D7" s="10">
@@ -740,11 +734,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <v>45954</v>
       </c>
       <c r="D8" s="5">
@@ -755,11 +749,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <v>45954</v>
       </c>
       <c r="D9" s="10">
@@ -772,18 +766,18 @@
     <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <v>45955</v>
       </c>
       <c r="D11" s="10">
@@ -794,26 +788,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23">
-        <v>45955</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <v>45955</v>
       </c>
       <c r="D13" s="10">
@@ -824,35 +810,35 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="23">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18">
         <v>45955</v>
       </c>
       <c r="D14" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="C16" s="18">
         <v>45955</v>
       </c>
       <c r="D16" s="5">
@@ -865,7 +851,7 @@
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
@@ -883,36 +869,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C3224E-B216-43BF-B73D-0F7B8EA8AA60}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="16.08984375" style="27"/>
+    <col min="1" max="1" width="23.36328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="16.08984375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22">
         <v>1</v>
       </c>
     </row>
@@ -920,10 +906,10 @@
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="B3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22">
         <v>2</v>
       </c>
     </row>
@@ -931,10 +917,10 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="22">
         <v>3</v>
       </c>
     </row>
@@ -942,10 +928,10 @@
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22">
         <v>4</v>
       </c>
     </row>
@@ -953,10 +939,10 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22">
         <v>5</v>
       </c>
     </row>
@@ -964,10 +950,10 @@
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="B7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22">
         <v>6</v>
       </c>
     </row>
@@ -975,23 +961,15 @@
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="27">
-        <v>8</v>
-      </c>
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B4E8B2-48F5-4AF0-9D3D-BE5A92473981}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE3CDCF-2F11-46F3-B462-6E0875158D7A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -663,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="16">
-        <v>45952</v>
+        <v>45940</v>
       </c>
       <c r="D2" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE3CDCF-2F11-46F3-B462-6E0875158D7A}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2282622-B1BA-4360-8754-B533D574D813}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Back of Bus Ground: 1st and 2nd Year</t>
   </si>
   <si>
-    <t>Final Dance and Singing Perfomance</t>
-  </si>
-  <si>
     <t>Student Coordinator</t>
   </si>
   <si>
@@ -125,6 +122,15 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>Domain Lab, New Auditorium, Seminar Hall, CRC-1 135</t>
+  </si>
+  <si>
+    <t>Coding Challenge (Mandatory for CSE 7th Semester)</t>
+  </si>
+  <si>
+    <t>Cultural Events</t>
   </si>
 </sst>
 </file>
@@ -260,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,9 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -301,23 +304,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,6 +336,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,16 +633,17 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="24" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17" style="26" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="13.26953125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -645,7 +653,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -655,78 +663,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="16">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14">
         <v>45940</v>
       </c>
       <c r="D2" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>45950</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45954</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45954</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="18">
-        <v>45954</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18">
-        <v>45954</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>45954</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -734,11 +750,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>45954</v>
       </c>
       <c r="D8" s="5">
@@ -749,38 +765,26 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18">
-        <v>45954</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>45955</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.41666666666666669</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -788,21 +792,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>45955</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.5</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -810,11 +814,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>45955</v>
       </c>
       <c r="D14" s="5">
@@ -825,20 +829,20 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="18">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15">
         <v>45955</v>
       </c>
       <c r="D16" s="5">
@@ -849,11 +853,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -875,30 +879,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="16.08984375" style="22"/>
+    <col min="1" max="1" width="23.36328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="16.08984375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="22">
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
     </row>
@@ -906,10 +910,10 @@
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22">
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
         <v>2</v>
       </c>
     </row>
@@ -917,10 +921,10 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="22">
+      <c r="B4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18">
         <v>3</v>
       </c>
     </row>
@@ -928,10 +932,10 @@
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="B5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18">
         <v>4</v>
       </c>
     </row>
@@ -939,10 +943,10 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18">
         <v>5</v>
       </c>
     </row>
@@ -950,10 +954,10 @@
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="18">
         <v>6</v>
       </c>
     </row>
@@ -961,15 +965,15 @@
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2282622-B1BA-4360-8754-B533D574D813}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69FC060-307F-4C1C-9FB2-078783BC4210}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Starting Time</t>
   </si>
   <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>Pre Events</t>
-  </si>
-  <si>
     <t>Coding Challenge</t>
   </si>
   <si>
@@ -131,6 +125,15 @@
   </si>
   <si>
     <t>Cultural Events</t>
+  </si>
+  <si>
+    <t>Pre Event #1</t>
+  </si>
+  <si>
+    <t>Pre Event #2</t>
+  </si>
+  <si>
+    <t>Venue(Tentative)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,9 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,17 +633,17 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="17" style="26" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="13.26953125" style="24"/>
+    <col min="1" max="1" width="17.26953125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="17" style="25" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="13.26953125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -660,15 +660,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>5</v>
+      <c r="A2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="14">
         <v>45940</v>
@@ -677,13 +677,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="15">
         <v>45950</v>
@@ -692,7 +694,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -703,11 +705,11 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>8</v>
+      <c r="A5" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="15">
         <v>45954</v>
@@ -716,13 +718,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="15">
         <v>45954</v>
@@ -731,13 +733,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15">
         <v>45954</v>
@@ -746,13 +748,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15">
         <v>45954</v>
@@ -761,11 +763,11 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
@@ -775,11 +777,11 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>17</v>
+      <c r="A11" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="15">
         <v>45955</v>
@@ -788,20 +790,20 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15">
         <v>45955</v>
@@ -810,13 +812,13 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15">
         <v>45955</v>
@@ -825,22 +827,22 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="15">
         <v>45955</v>
@@ -849,7 +851,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -860,8 +862,7 @@
       <c r="E17" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="2">
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A11:A16"/>
   </mergeCells>
@@ -889,18 +890,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -908,10 +909,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -919,10 +920,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -930,10 +931,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -941,10 +942,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
@@ -952,10 +953,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="18">
         <v>6</v>
@@ -963,10 +964,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="18">
         <v>7</v>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69FC060-307F-4C1C-9FB2-078783BC4210}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2170D5A2-2BAE-4027-8CC1-75BFBFD05A87}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,9 @@
     <t>Starting Time</t>
   </si>
   <si>
+    <t>Venue</t>
+  </si>
+  <si>
     <t>Coding Challenge</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
   </si>
   <si>
     <t>Pre Event #2</t>
-  </si>
-  <si>
-    <t>Venue(Tentative)</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -660,15 +660,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="14">
         <v>45940</v>
@@ -677,15 +677,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15">
         <v>45950</v>
@@ -694,7 +694,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -706,10 +706,10 @@
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="15">
         <v>45954</v>
@@ -718,13 +718,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="15">
         <v>45954</v>
@@ -733,13 +733,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="15">
         <v>45954</v>
@@ -748,13 +748,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15">
         <v>45954</v>
@@ -763,7 +763,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -778,10 +778,10 @@
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="15">
         <v>45955</v>
@@ -790,7 +790,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
     <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15">
         <v>45955</v>
@@ -812,13 +812,13 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15">
         <v>45955</v>
@@ -827,7 +827,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -836,13 +836,13 @@
       <c r="C15" s="15"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="15">
         <v>45955</v>
@@ -851,7 +851,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -890,18 +890,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18">
         <v>6</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="18">
         <v>7</v>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2170D5A2-2BAE-4027-8CC1-75BFBFD05A87}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AFFC2C-D100-4BB1-868C-32D5E496956C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Pre Event #2</t>
+  </si>
+  <si>
+    <t>Faculty Coordinator</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,6 +348,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -872,109 +884,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C3224E-B216-43BF-B73D-0F7B8EA8AA60}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="16.08984375" style="18"/>
+    <col min="1" max="2" width="23.36328125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="16.08984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18">
+      <c r="D3" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18">
+      <c r="D4" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18">
+      <c r="D6" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="18">
+      <c r="D7" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="18">
+      <c r="D8" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
+      <c r="B9" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AFFC2C-D100-4BB1-868C-32D5E496956C}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8264193-D795-4585-BE5F-0E9ECA74A7C7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,63 +936,63 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26"/>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="18" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D7" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="18">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="27"/>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">

--- a/event_schedule.xlsx
+++ b/event_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ace56c24a7d3a79/Desktop/success/TechUtsav/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8264193-D795-4585-BE5F-0E9ECA74A7C7}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104830395979AA5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C4CC048-3EE1-42A5-903C-54F103957095}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Faculty Coordinator</t>
+  </si>
+  <si>
+    <t>Dr. DHAWALESWAR RAO</t>
   </si>
 </sst>
 </file>
@@ -328,18 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -349,13 +340,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,12 +653,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="17" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="13.26953125" style="23"/>
+    <col min="1" max="1" width="17.26953125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="13.26953125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -717,7 +720,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -734,7 +737,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -749,7 +752,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -764,7 +767,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -779,7 +782,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
@@ -789,7 +792,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -806,14 +809,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11"/>
       <c r="C12" s="15"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
@@ -828,7 +831,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -843,7 +846,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15"/>
       <c r="D15" s="9"/>
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
@@ -887,7 +890,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +918,9 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
@@ -927,7 +932,7 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="18" t="s">
         <v>26</v>
       </c>
@@ -939,7 +944,7 @@
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="18" t="s">
         <v>30</v>
       </c>
@@ -951,7 +956,7 @@
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
@@ -963,7 +968,7 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="18" t="s">
         <v>27</v>
       </c>
@@ -975,7 +980,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
@@ -987,7 +992,7 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="18" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1002,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
